--- a/app/static/workbooks/archivo_excel.xlsx
+++ b/app/static/workbooks/archivo_excel.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254</v>
+        <v>2256.85</v>
       </c>
     </row>
     <row r="4">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>457.3</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
